--- a/biology/Botanique/Orchis_de_Fuchs/Orchis_de_Fuchs.xlsx
+++ b/biology/Botanique/Orchis_de_Fuchs/Orchis_de_Fuchs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dactylorhiza fuchsii
 L'Orchis de Fuchs (Dactylorhiza fuchsii) est une espèce de plantes herbacées de la famille des Orchidaceae. C'est une orchidée terrestre européenne.
@@ -514,11 +526,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante élancée, à tige pleine, à plusieurs feuilles dont les caulinaires dressées, rarement non maculées, à bractées assez courtes. L'inflorescence est plutôt dense, en épi conique devenant cylindrique. Les fleurs varient du lilas foncé au blanc. Les sépales latéraux sont écartés souvent maculés en dedans. Le sépale supérieur forme un casque avec les deux pétales latéraux. Le labelle est trilobé portant des dessins violacés, les deux lobes latéraux sont écartés, le lobe médian est plus long que ces derniers. L'éperon est cylindrique, en position horizontale le plus souvent.
 La distinction avec Dactylorhiza maculata se fait (en partie) grâce au labelle qui est profondément trilobé chez Dactylorhiza fuchsii. Cette dernière semble nettement plus inféodée aux forêts que Dactylorhiza maculata, plutôt présente dans les prairies.
-Dactylorhiza fuchsii est considérée par certains  auteurs comme une sous-espèce de Dactylorhiza maculata (Dactylorhiza maculata subsp. fuchsii (Druce) Hyl)[1],[2].
+Dactylorhiza fuchsii est considérée par certains  auteurs comme une sous-espèce de Dactylorhiza maculata (Dactylorhiza maculata subsp. fuchsii (Druce) Hyl),.
 </t>
         </is>
       </c>
@@ -547,7 +561,9 @@
           <t>Floraison</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet orchis fleurit de juin à juillet.
 </t>
@@ -578,7 +594,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une espèce de pleine lumière ou d'ombre sur substrats alcalins, secs à frais (pelouses, lisières de forêts, marais…).
 </t>
@@ -609,7 +627,9 @@
           <t>Aire de répartition</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Eurosibérienne (aire relativement incertaine du fait des confusions avec Dactylorhiza maculata).
 </t>
@@ -640,9 +660,11 @@
           <t>Statuts de protection</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est classée « LC : préoccupation mineure »[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est classée « LC : préoccupation mineure ».
 Elle figure sur la liste des espèces végétales protégées en Alsace.
 </t>
         </is>
